--- a/Data/EC/NIT-9000759421.xlsx
+++ b/Data/EC/NIT-9000759421.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D23B426-F32D-4339-A75A-A4656296941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BACF12A-DF9E-4154-BC1C-59F5C33B7FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{489E7175-C73D-47D6-8AAC-DC804E468EB6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{818A9B7D-07CA-434E-9EEA-78DA3333462F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="71">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,25 +65,148 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1022329511</t>
+  </si>
+  <si>
+    <t>MARCELA ANDREA MOJICA PARRA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1047463258</t>
+  </si>
+  <si>
+    <t>LEIDY DIANA CARRILLO LOPEZ</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1143366920</t>
+  </si>
+  <si>
+    <t>MICHAEL DAVID VELASCO GOMEZ</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1052997617</t>
+  </si>
+  <si>
+    <t>ELIAS JAVIER RIZCALA DE FEX</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>73351524</t>
   </si>
   <si>
     <t>GENNER LUIS JULIO GUERRERO</t>
   </si>
   <si>
+    <t>2108</t>
+  </si>
+  <si>
     <t>2109</t>
   </si>
   <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>1047463258</t>
-  </si>
-  <si>
-    <t>LEIDY DIANA CARRILLO LOPEZ</t>
-  </si>
-  <si>
-    <t>1705</t>
+    <t>20322458</t>
+  </si>
+  <si>
+    <t>YEIN CAROLINA GIRALDO CARRASQUILLA</t>
   </si>
   <si>
     <t>73226454</t>
@@ -93,153 +216,6 @@
   </si>
   <si>
     <t>2111</t>
-  </si>
-  <si>
-    <t>1022329511</t>
-  </si>
-  <si>
-    <t>MARCELA ANDREA MOJICA PARRA</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1143366920</t>
-  </si>
-  <si>
-    <t>MICHAEL DAVID VELASCO GOMEZ</t>
-  </si>
-  <si>
-    <t>1052997617</t>
-  </si>
-  <si>
-    <t>ELIAS JAVIER RIZCALA DE FEX</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>20322458</t>
-  </si>
-  <si>
-    <t>YEIN CAROLINA GIRALDO CARRASQUILLA</t>
-  </si>
-  <si>
-    <t>1001804218</t>
-  </si>
-  <si>
-    <t>PAULA ANDREA PEREZ MONTES</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -338,7 +314,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -351,9 +329,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -553,23 +529,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,10 +573,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,7 +629,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{859C7C41-071B-684B-D708-02030CF1E38B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A30D24-F177-63EB-955E-0B14D657929D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1004,8 +980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F02CAFA-143A-4845-BB09-A7A55ABC7C99}">
-  <dimension ref="B2:J79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4A1BA7-8011-47B4-ACA4-A21BD66583AA}">
+  <dimension ref="B2:J73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1029,7 +1005,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1074,7 +1050,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1106,12 +1082,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>8234524</v>
+        <v>7892884</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1122,17 +1098,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1159,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1182,10 +1158,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>22448</v>
+        <v>220000</v>
       </c>
       <c r="G16" s="18">
-        <v>1122400</v>
+        <v>5500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1205,10 +1181,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>37413</v>
+        <v>220000</v>
       </c>
       <c r="G17" s="18">
-        <v>1122400</v>
+        <v>5500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1219,19 +1195,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>37440</v>
+        <v>220000</v>
       </c>
       <c r="G18" s="18">
-        <v>936000</v>
+        <v>5500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1242,19 +1218,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>19450</v>
+        <v>220000</v>
       </c>
       <c r="G19" s="18">
-        <v>1042000</v>
+        <v>5500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1265,13 +1241,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>220000</v>
@@ -1288,13 +1264,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>220000</v>
@@ -1311,13 +1287,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>220000</v>
@@ -1334,13 +1310,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>220000</v>
@@ -1357,13 +1333,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F24" s="18">
         <v>220000</v>
@@ -1380,19 +1356,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>220000</v>
+        <v>37440</v>
       </c>
       <c r="G25" s="18">
-        <v>5500000</v>
+        <v>936000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1403,13 +1379,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>220000</v>
@@ -1426,19 +1402,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>220000</v>
+        <v>27600</v>
       </c>
       <c r="G27" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1449,13 +1425,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>220000</v>
@@ -1472,19 +1448,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
-        <v>220000</v>
+        <v>36000</v>
       </c>
       <c r="G29" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1495,13 +1471,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>220000</v>
@@ -1518,19 +1494,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>220000</v>
+        <v>36000</v>
       </c>
       <c r="G31" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1541,13 +1517,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>220000</v>
@@ -1564,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F33" s="18">
-        <v>220000</v>
+        <v>36000</v>
       </c>
       <c r="G33" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1587,13 +1563,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F34" s="18">
         <v>220000</v>
@@ -1610,19 +1586,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
-        <v>220000</v>
+        <v>36000</v>
       </c>
       <c r="G35" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1633,13 +1609,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18">
         <v>220000</v>
@@ -1656,19 +1632,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F37" s="18">
-        <v>220000</v>
+        <v>36000</v>
       </c>
       <c r="G37" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1679,13 +1655,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F38" s="18">
         <v>220000</v>
@@ -1702,19 +1678,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F39" s="18">
-        <v>220000</v>
+        <v>36000</v>
       </c>
       <c r="G39" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1725,13 +1701,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F40" s="18">
         <v>220000</v>
@@ -1748,19 +1724,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F41" s="18">
-        <v>220000</v>
+        <v>36000</v>
       </c>
       <c r="G41" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1771,13 +1747,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F42" s="18">
         <v>220000</v>
@@ -1794,19 +1770,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F43" s="18">
-        <v>220000</v>
+        <v>36000</v>
       </c>
       <c r="G43" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1817,13 +1793,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F44" s="18">
         <v>220000</v>
@@ -1840,19 +1816,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F45" s="18">
-        <v>220000</v>
+        <v>36000</v>
       </c>
       <c r="G45" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1863,13 +1839,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F46" s="18">
         <v>220000</v>
@@ -1886,19 +1862,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F47" s="18">
-        <v>220000</v>
+        <v>36000</v>
       </c>
       <c r="G47" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1909,13 +1885,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F48" s="18">
         <v>220000</v>
@@ -1932,19 +1908,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F49" s="18">
-        <v>220000</v>
+        <v>36000</v>
       </c>
       <c r="G49" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1955,13 +1931,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F50" s="18">
         <v>220000</v>
@@ -1978,19 +1954,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F51" s="18">
-        <v>220000</v>
+        <v>36000</v>
       </c>
       <c r="G51" s="18">
-        <v>5500000</v>
+        <v>900000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2001,13 +1977,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F52" s="18">
         <v>220000</v>
@@ -2024,19 +2000,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F53" s="18">
-        <v>36000</v>
+        <v>220000</v>
       </c>
       <c r="G53" s="18">
-        <v>900000</v>
+        <v>5500000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2047,19 +2023,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F54" s="18">
-        <v>36000</v>
+        <v>220000</v>
       </c>
       <c r="G54" s="18">
-        <v>900000</v>
+        <v>5500000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2070,19 +2046,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F55" s="18">
-        <v>36000</v>
+        <v>220000</v>
       </c>
       <c r="G55" s="18">
-        <v>900000</v>
+        <v>5500000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2093,19 +2069,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F56" s="18">
-        <v>36000</v>
+        <v>220000</v>
       </c>
       <c r="G56" s="18">
-        <v>900000</v>
+        <v>5500000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2116,19 +2092,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F57" s="18">
-        <v>36000</v>
+        <v>220000</v>
       </c>
       <c r="G57" s="18">
-        <v>900000</v>
+        <v>5500000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2139,19 +2115,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F58" s="18">
-        <v>36000</v>
+        <v>220000</v>
       </c>
       <c r="G58" s="18">
-        <v>900000</v>
+        <v>5500000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2162,19 +2138,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F59" s="18">
-        <v>36000</v>
+        <v>220000</v>
       </c>
       <c r="G59" s="18">
-        <v>900000</v>
+        <v>5500000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2185,19 +2161,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F60" s="18">
-        <v>36000</v>
+        <v>220000</v>
       </c>
       <c r="G60" s="18">
-        <v>900000</v>
+        <v>5500000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2208,19 +2184,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F61" s="18">
-        <v>36000</v>
+        <v>220000</v>
       </c>
       <c r="G61" s="18">
-        <v>900000</v>
+        <v>5500000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2231,19 +2207,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F62" s="18">
-        <v>36000</v>
+        <v>220000</v>
       </c>
       <c r="G62" s="18">
-        <v>900000</v>
+        <v>5500000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2254,19 +2230,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F63" s="18">
-        <v>36000</v>
+        <v>8533</v>
       </c>
       <c r="G63" s="18">
-        <v>900000</v>
+        <v>1600000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2277,19 +2253,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F64" s="18">
-        <v>36000</v>
+        <v>37413</v>
       </c>
       <c r="G64" s="18">
-        <v>900000</v>
+        <v>1122400</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2300,19 +2276,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D65" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F65" s="18">
-        <v>27600</v>
+        <v>22448</v>
       </c>
       <c r="G65" s="18">
-        <v>900000</v>
+        <v>1122400</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2329,207 +2305,69 @@
         <v>56</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F66" s="18">
-        <v>8533</v>
+        <v>48000</v>
       </c>
       <c r="G66" s="18">
-        <v>1600000</v>
+        <v>1200000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
+      <c r="B67" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="E67" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="18">
-        <v>48000</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1200000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F68" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F69" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F70" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F67" s="24">
+        <v>19450</v>
+      </c>
+      <c r="G67" s="24">
+        <v>1042000</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F72" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="B72" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="32"/>
+      <c r="H72" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F73" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G73" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" s="32"/>
-      <c r="H78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="H79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="B73" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="H73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H72:J72"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
